--- a/Examples/powerplant/powerplant_model.xlsx
+++ b/Examples/powerplant/powerplant_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\ExIOLab\Ejemplos\powerplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Manual TaesLab/Ejemplos/powerplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D6699D-8231-4A46-ACE3-99FCB2C1864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{49D6699D-8231-4A46-ACE3-99FCB2C1864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2D18330-0C08-4852-9848-401BA9829F0A}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1830" windowWidth="14115" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="975" windowWidth="17265" windowHeight="12525" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
   <si>
     <t>key</t>
   </si>
@@ -373,9 +373,6 @@
     <t>B10-B9</t>
   </si>
   <si>
-    <t>TV89</t>
-  </si>
-  <si>
     <t>ALT97</t>
   </si>
   <si>
@@ -386,6 +383,9 @@
   </si>
   <si>
     <t>HYBRID</t>
+  </si>
+  <si>
+    <t>ETV89</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7956,7 +7956,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="M7" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -7974,7 +7974,7 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -8527,8 +8527,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8543,29 +8543,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>Flows!A2</f>
-        <v>B1</v>
+      <c r="A2" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B2">
         <v>119669</v>
@@ -8580,13 +8579,12 @@
         <v>121830</v>
       </c>
       <c r="F2">
-        <v>119357</v>
+        <v>119366</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>Flows!A3</f>
-        <v>B2</v>
+      <c r="A3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B3">
         <v>72941</v>
@@ -8601,13 +8599,12 @@
         <v>74258</v>
       </c>
       <c r="F3">
-        <v>72833</v>
+        <v>72842</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>Flows!A4</f>
-        <v>B3</v>
+      <c r="A4" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B4">
         <v>62368</v>
@@ -8622,13 +8619,12 @@
         <v>63494</v>
       </c>
       <c r="F4">
-        <v>62368</v>
+        <v>62376</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>Flows!A5</f>
-        <v>B4</v>
+      <c r="A5" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B5">
         <v>81615</v>
@@ -8643,13 +8639,12 @@
         <v>83089</v>
       </c>
       <c r="F5">
-        <v>82199</v>
+        <v>82209</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>Flows!A6</f>
-        <v>B5</v>
+      <c r="A6" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B6">
         <v>54430</v>
@@ -8664,13 +8659,12 @@
         <v>55834</v>
       </c>
       <c r="F6">
-        <v>54830</v>
+        <v>54836</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>Flows!A7</f>
-        <v>B6</v>
+      <c r="A7" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B7">
         <v>7492</v>
@@ -8685,13 +8679,12 @@
         <v>10159</v>
       </c>
       <c r="F7">
-        <v>7547</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>Flows!A8</f>
-        <v>B7</v>
+      <c r="A8" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B8">
         <v>105.4</v>
@@ -8710,9 +8703,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>Flows!A9</f>
-        <v>B8</v>
+      <c r="A9" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B9">
         <v>130.1</v>
@@ -8731,9 +8723,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>Flows!A10</f>
-        <v>B9</v>
+      <c r="A10" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B10">
         <v>7205</v>
@@ -8748,13 +8739,12 @@
         <v>7335</v>
       </c>
       <c r="F10">
-        <v>7267</v>
+        <v>7268</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>Flows!A11</f>
-        <v>B10</v>
+      <c r="A11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B11">
         <v>8158</v>
@@ -8769,13 +8759,12 @@
         <v>8305</v>
       </c>
       <c r="F11">
-        <v>8228</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>Flows!A12</f>
-        <v>B11</v>
+      <c r="A12" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B12">
         <v>16346</v>
@@ -8790,13 +8779,12 @@
         <v>16641</v>
       </c>
       <c r="F12">
-        <v>16487</v>
+        <v>16495</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>Flows!A13</f>
-        <v>B12</v>
+      <c r="A13" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B13">
         <v>11581</v>
@@ -8811,13 +8799,12 @@
         <v>11790</v>
       </c>
       <c r="F13">
-        <v>11687</v>
+        <v>11684</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Flows!A14</f>
-        <v>B13</v>
+      <c r="A14" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B14">
         <v>2207</v>
@@ -8836,9 +8823,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>Flows!A15</f>
-        <v>B14</v>
+      <c r="A15" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B15">
         <v>8580</v>
@@ -8853,13 +8839,12 @@
         <v>8315</v>
       </c>
       <c r="F15">
-        <v>8630</v>
+        <v>8632</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>Flows!A16</f>
-        <v>GN</v>
+      <c r="A16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B16">
         <v>286333</v>
@@ -8874,13 +8859,12 @@
         <v>291505</v>
       </c>
       <c r="F16">
-        <v>287555</v>
+        <v>287575</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>Flows!A17</f>
-        <v>WTA1</v>
+      <c r="A17" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B17">
         <v>33159</v>
@@ -8895,13 +8879,12 @@
         <v>33758</v>
       </c>
       <c r="F17">
-        <v>32840</v>
+        <v>32843</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>Flows!A18</f>
-        <v>WTA2</v>
+      <c r="A18" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B18">
         <v>9893</v>
@@ -8916,13 +8899,12 @@
         <v>10071</v>
       </c>
       <c r="F18">
-        <v>9783</v>
+        <v>9784</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>Flows!A19</f>
-        <v>WTB1</v>
+      <c r="A19" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B19">
         <v>17639</v>
@@ -8937,13 +8919,12 @@
         <v>17958</v>
       </c>
       <c r="F19">
-        <v>17765</v>
+        <v>17767</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>Flows!A20</f>
-        <v>WTB2</v>
+      <c r="A20" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B20">
         <v>42466</v>
@@ -8958,13 +8939,12 @@
         <v>41391</v>
       </c>
       <c r="F20">
-        <v>42779</v>
+        <v>42784</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>Flows!A21</f>
-        <v>WP1</v>
+      <c r="A21" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B21">
         <v>28.84</v>
@@ -8983,9 +8963,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>Flows!A22</f>
-        <v>WP2</v>
+      <c r="A22" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B22">
         <v>1065</v>
@@ -9000,13 +8979,12 @@
         <v>1084</v>
       </c>
       <c r="F22">
-        <v>1074</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>Flows!A23</f>
-        <v>WN</v>
+      <c r="A23" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B23">
         <v>100000</v>
@@ -9025,33 +9003,28 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>Flows!A24</f>
-        <v>QC</v>
+      <c r="A24" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B24">
-        <f>B7-B8</f>
         <v>7386.6</v>
       </c>
       <c r="C24">
-        <f>C7-C8</f>
         <v>7492.5</v>
       </c>
       <c r="D24">
-        <f>D7-D8</f>
         <v>7463.5</v>
       </c>
       <c r="E24">
-        <f>E7-E8</f>
         <v>9965.1</v>
       </c>
       <c r="F24">
-        <f>F7-F8</f>
-        <v>7440.8</v>
+        <v>7441.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Examples/powerplant/powerplant_model.xlsx
+++ b/Examples/powerplant/powerplant_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Manual TaesLab/Ejemplos/powerplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\powerplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{49D6699D-8231-4A46-ACE3-99FCB2C1864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2D18330-0C08-4852-9848-401BA9829F0A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43B4FC1-1712-40FB-A59B-BE2675A50803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="975" windowWidth="17265" windowHeight="12525" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="435" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -23,9 +23,9 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$15</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$1</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$1</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$14</definedName>
-    <definedName name="gturbo_processes" localSheetId="3">Processes!$G$5:$K$16</definedName>
+    <definedName name="gturbo_processes" localSheetId="3">Processes!$E$5:$I$16</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -7673,11 +7673,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0400-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gturbo_processes" connectionId="4" xr16:uid="{00000000-0016-0000-0400-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gturbo_processes" connectionId="4" xr16:uid="{00000000-0016-0000-0400-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0400-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8282,23 +8282,20 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8306,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -8315,7 +8312,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8323,7 +8320,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -8332,7 +8329,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8340,7 +8337,7 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -8349,7 +8346,7 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8357,7 +8354,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -8366,7 +8363,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8374,7 +8371,7 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -8383,7 +8380,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8391,7 +8388,7 @@
         <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>69</v>
@@ -8400,7 +8397,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8408,7 +8405,7 @@
         <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -8417,7 +8414,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8425,7 +8422,7 @@
         <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
@@ -8434,7 +8431,7 @@
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8442,7 +8439,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -8451,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8459,7 +8456,7 @@
         <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
@@ -8468,7 +8465,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8476,7 +8473,7 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>73</v>
@@ -8485,7 +8482,7 @@
         <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8493,7 +8490,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -8502,7 +8499,7 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8514,7 +8511,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E12</xm:sqref>
+          <xm:sqref>B2:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8527,7 +8524,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
